--- a/Grupos del proyecto integrador - Curso Node JS (23571).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23571).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbusta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbusta\Desktop\Bati-Archivos\Codo a Codo 2do Cuatri 2023\NODE\23571\comision23571\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="201">
   <si>
     <t>victoriabugi2628@gmail.com</t>
   </si>
@@ -601,13 +601,37 @@
   </si>
   <si>
     <t>damiansteinberg@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t>Iván Villena</t>
+  </si>
+  <si>
+    <t>ivan.pieszko@gmail.com</t>
+  </si>
+  <si>
+    <t>sotoezequiel93@gmail.com</t>
+  </si>
+  <si>
+    <t>belenkazama@gmail.com</t>
+  </si>
+  <si>
+    <t>Ezequiel Soto</t>
+  </si>
+  <si>
+    <t>Maria belen rojas</t>
+  </si>
+  <si>
+    <t>malejojeremias@gmail.com</t>
+  </si>
+  <si>
+    <t>Alejo Jeremias Márquez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -618,10 +642,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -642,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -665,11 +697,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,6 +758,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -904,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:A95"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1025,25 +1115,19 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,10 +1135,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1146,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,10 +1168,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,252 +1179,235 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>5</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,10 +1415,10 @@
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,10 +1426,10 @@
         <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,76 +1437,70 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>6</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,10 +1508,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,87 +1519,81 @@
         <v>6</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>7</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>7</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,428 +1601,586 @@
         <v>7</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>8</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>8</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>9</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>11</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>12</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="A91" s="2"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
+        <v>11</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>11</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>11</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>11</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>11</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>11</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>11</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>11</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>12</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C101" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>12</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>12</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>12</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>12</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>12</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>13</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>13</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="C109" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>13</v>
+      </c>
+      <c r="B110" s="8"/>
+      <c r="C110" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>13</v>
+      </c>
+      <c r="B111" s="8"/>
+      <c r="C111" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>13</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Grupos del proyecto integrador - Curso Node JS (23571).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23571).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>victoriabugi2628@gmail.com</t>
   </si>
@@ -994,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2028,37 +2028,37 @@
         <v>11</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>11</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="A99" s="2"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="A100" s="2">
+        <v>12</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>12</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2066,21 +2066,21 @@
         <v>12</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>12</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>142</v>
+      <c r="C103" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2088,10 +2088,10 @@
         <v>12</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,26 +2099,28 @@
         <v>12</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>12</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>192</v>
-      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
+      <c r="A107" s="3">
+        <v>13</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
@@ -2126,10 +2128,10 @@
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="11" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E108" s="9"/>
     </row>
@@ -2139,10 +2141,10 @@
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E109" s="9"/>
     </row>
@@ -2152,10 +2154,10 @@
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E110" s="9"/>
     </row>
@@ -2163,23 +2165,10 @@
       <c r="A111" s="3">
         <v>13</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E111" s="9"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>13</v>
-      </c>
-      <c r="C112" s="12" t="s">
+      <c r="C111" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D111" s="13" t="s">
         <v>199</v>
       </c>
     </row>

--- a/Grupos del proyecto integrador - Curso Node JS (23571).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23571).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>victoriabugi2628@gmail.com</t>
   </si>
@@ -625,6 +625,24 @@
   </si>
   <si>
     <t>Alejo Jeremias Márquez</t>
+  </si>
+  <si>
+    <t>karla.a.cova@gmail.com</t>
+  </si>
+  <si>
+    <t>Karla Cova</t>
+  </si>
+  <si>
+    <t>Federic Caucota</t>
+  </si>
+  <si>
+    <t>caucota@gmail.com</t>
+  </si>
+  <si>
+    <t>angelxguilar@gmail.com</t>
+  </si>
+  <si>
+    <t>Angela Abril Aguilar</t>
   </si>
 </sst>
 </file>
@@ -674,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -701,21 +719,36 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -730,9 +763,112 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -740,34 +876,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,7 +890,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -994,1183 +1165,1367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="3"/>
-    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="2"/>
+    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="24" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="23" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="18" t="s">
         <v>28</v>
       </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="19">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="19">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="19">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="23" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>3</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
         <v>3</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
         <v>3</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
         <v>3</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
         <v>3</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
         <v>3</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
         <v>3</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="23" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>4</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
         <v>4</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
         <v>4</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
         <v>4</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
         <v>4</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
         <v>4</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
         <v>4</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
         <v>4</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
         <v>5</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
         <v>5</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
         <v>5</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
         <v>5</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
         <v>5</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
         <v>5</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
         <v>5</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22">
         <v>5</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
         <v>6</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
         <v>6</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
         <v>6</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
         <v>6</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
         <v>6</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
         <v>6</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
         <v>6</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22">
         <v>6</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="B55" s="14"/>
+      <c r="C55" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D55" s="23" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
         <v>7</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D57" s="18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="19">
         <v>7</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D58" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="19">
         <v>7</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D59" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="19">
         <v>7</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D60" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="19">
         <v>7</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D61" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="19">
         <v>7</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="19">
         <v>7</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="22">
         <v>7</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="B64" s="14"/>
+      <c r="C64" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D64" s="23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
         <v>8</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="B66" s="8"/>
+      <c r="C66" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D66" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="19">
         <v>8</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D67" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="19">
         <v>8</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D68" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="19">
         <v>8</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C69" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D69" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="19">
         <v>8</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D70" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="19">
         <v>8</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D71" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="19">
         <v>8</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C72" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D72" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="22">
         <v>8</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="B73" s="14"/>
+      <c r="C73" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D73" s="23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="20"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
         <v>9</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="B75" s="8"/>
+      <c r="C75" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D75" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="19">
         <v>9</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C76" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D76" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="19">
         <v>9</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D77" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="19">
         <v>9</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D78" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="19">
         <v>9</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D79" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="19">
         <v>9</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D80" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="19">
         <v>9</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D81" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="22">
         <v>9</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="B82" s="14"/>
+      <c r="C82" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D82" s="23" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="20"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="17">
         <v>10</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="B84" s="8"/>
+      <c r="C84" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="19">
         <v>10</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D85" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="19">
         <v>10</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C86" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D86" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="19">
         <v>10</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D87" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="19">
         <v>10</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C88" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D88" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="19">
         <v>10</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C89" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D89" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="19">
         <v>10</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D90" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="22">
         <v>10</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="B91" s="14"/>
+      <c r="C91" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D91" s="23" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="20"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="16"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="17">
         <v>11</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="B93" s="8"/>
+      <c r="C93" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D93" s="18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="19">
         <v>11</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D94" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="19">
         <v>11</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D95" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="19">
         <v>11</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C96" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D96" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="E96" s="12"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="19">
         <v>11</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D97" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="19">
         <v>11</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D98" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="22">
         <v>11</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="B99" s="14"/>
+      <c r="C99" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D99" s="23" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="20"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="16"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
         <v>12</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="B101" s="8"/>
+      <c r="C101" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D101" s="18" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="19">
         <v>12</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="C102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="19">
         <v>12</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="19">
+        <v>12</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D104" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
         <v>12</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C105" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D105" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
         <v>12</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C106" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D106" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="13">
         <v>12</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D107" s="14" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
         <v>13</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="11" t="s">
+      <c r="B109" s="8"/>
+      <c r="C109" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D109" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
         <v>13</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="11" t="s">
+      <c r="C110" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D110" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E108" s="9"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
         <v>13</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="11" t="s">
+      <c r="C111" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D111" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E109" s="9"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
         <v>13</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="11" t="s">
+      <c r="C112" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D112" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E110" s="9"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
         <v>13</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C113" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D113" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="13">
+        <v>13</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E114" s="15"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
@@ -2179,5 +2534,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grupos del proyecto integrador - Curso Node JS (23571).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23571).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>victoriabugi2628@gmail.com</t>
   </si>
@@ -643,13 +643,25 @@
   </si>
   <si>
     <t>Angela Abril Aguilar</t>
+  </si>
+  <si>
+    <t>rolonnicolas.095@gmail.com</t>
+  </si>
+  <si>
+    <t>Nicolas Rolon</t>
+  </si>
+  <si>
+    <t>sanzalejandra33@gmail.com</t>
+  </si>
+  <si>
+    <t>Emilce Alejandra Coronel Pereyra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -665,13 +677,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -876,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -888,9 +893,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1165,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1182,37 +1184,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1221,10 +1223,10 @@
       <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1233,10 +1235,10 @@
       <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1245,10 +1247,10 @@
       <c r="D5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1257,10 +1259,10 @@
       <c r="D6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1269,10 +1271,10 @@
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1281,43 +1283,43 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>2</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1326,10 +1328,10 @@
       <c r="D12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1338,10 +1340,10 @@
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1350,10 +1352,10 @@
       <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1362,10 +1364,10 @@
       <c r="D15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1374,10 +1376,10 @@
       <c r="D16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1386,43 +1388,43 @@
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>2</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="16"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>3</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1431,10 +1433,10 @@
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1443,10 +1445,10 @@
       <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1455,10 +1457,10 @@
       <c r="D23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1467,10 +1469,10 @@
       <c r="D24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1479,10 +1481,10 @@
       <c r="D25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1491,43 +1493,43 @@
       <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>3</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="16"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>4</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1536,10 +1538,10 @@
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1548,10 +1550,10 @@
       <c r="D31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1560,10 +1562,10 @@
       <c r="D32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1572,10 +1574,10 @@
       <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="18">
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1584,10 +1586,10 @@
       <c r="D34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1596,43 +1598,43 @@
       <c r="D35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="21">
         <v>4</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="16"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <v>5</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1641,10 +1643,10 @@
       <c r="D39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1653,10 +1655,10 @@
       <c r="D40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="18">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1665,10 +1667,10 @@
       <c r="D41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="18">
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1677,10 +1679,10 @@
       <c r="D42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="18">
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1689,10 +1691,10 @@
       <c r="D43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="18">
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1701,10 +1703,10 @@
       <c r="D44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="18">
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1713,43 +1715,43 @@
       <c r="D45" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="12"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22">
+      <c r="A46" s="21">
         <v>5</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="23" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="16"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="A48" s="16">
         <v>6</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="18" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="18">
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1758,10 +1760,10 @@
       <c r="D49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="18">
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1770,10 +1772,10 @@
       <c r="D50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="18">
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1782,10 +1784,10 @@
       <c r="D51" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="A52" s="18">
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1794,10 +1796,10 @@
       <c r="D52" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="12"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="A53" s="18">
         <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1806,10 +1808,10 @@
       <c r="D53" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="12"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
+      <c r="A54" s="18">
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1818,43 +1820,43 @@
       <c r="D54" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E54" s="12"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="21">
         <v>6</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="23" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="15"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="16"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="15"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+      <c r="A57" s="16">
         <v>7</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="18" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
+      <c r="A58" s="18">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1863,10 +1865,10 @@
       <c r="D58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="12"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="19">
+      <c r="A59" s="18">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1875,10 +1877,10 @@
       <c r="D59" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="12"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
+      <c r="A60" s="18">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1887,10 +1889,10 @@
       <c r="D60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="12"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
+      <c r="A61" s="18">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1899,10 +1901,10 @@
       <c r="D61" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="12"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
+      <c r="A62" s="18">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1911,10 +1913,10 @@
       <c r="D62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
+      <c r="A63" s="18">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1923,43 +1925,43 @@
       <c r="D63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="21">
         <v>7</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="23" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="16"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="A66" s="16">
         <v>8</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="18" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="10"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="19">
+      <c r="A67" s="18">
         <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1968,10 +1970,10 @@
       <c r="D67" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="12"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="19">
+      <c r="A68" s="18">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1980,10 +1982,10 @@
       <c r="D68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="12"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="19">
+      <c r="A69" s="18">
         <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1992,10 +1994,10 @@
       <c r="D69" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E69" s="12"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
+      <c r="A70" s="18">
         <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2004,10 +2006,10 @@
       <c r="D70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E70" s="12"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
+      <c r="A71" s="18">
         <v>8</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2016,10 +2018,10 @@
       <c r="D71" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E71" s="12"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
+      <c r="A72" s="18">
         <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2028,43 +2030,43 @@
       <c r="D72" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E72" s="12"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="22">
+      <c r="A73" s="21">
         <v>8</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="23" t="s">
+      <c r="B73" s="13"/>
+      <c r="C73" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E73" s="15"/>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="16"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
+      <c r="A75" s="16">
         <v>9</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="18" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E75" s="10"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="19">
+      <c r="A76" s="18">
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2073,10 +2075,10 @@
       <c r="D76" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="19">
+      <c r="A77" s="18">
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2085,10 +2087,10 @@
       <c r="D77" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="12"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="19">
+      <c r="A78" s="18">
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2097,10 +2099,10 @@
       <c r="D78" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="12"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="19">
+      <c r="A79" s="18">
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2109,10 +2111,10 @@
       <c r="D79" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E79" s="12"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="19">
+      <c r="A80" s="18">
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2121,10 +2123,10 @@
       <c r="D80" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E80" s="12"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="19">
+      <c r="A81" s="18">
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2133,43 +2135,43 @@
       <c r="D81" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="12"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="22">
+      <c r="A82" s="21">
         <v>9</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="23" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E82" s="15"/>
+      <c r="E82" s="14"/>
     </row>
     <row r="83" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="20"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="16"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="15"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
+      <c r="A84" s="16">
         <v>10</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="18" t="s">
+      <c r="B84" s="7"/>
+      <c r="C84" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="10"/>
+      <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="19">
+      <c r="A85" s="18">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2178,10 +2180,10 @@
       <c r="D85" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E85" s="12"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="19">
+      <c r="A86" s="18">
         <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2190,10 +2192,10 @@
       <c r="D86" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="12"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="19">
+      <c r="A87" s="18">
         <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2202,10 +2204,10 @@
       <c r="D87" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E87" s="12"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="19">
+      <c r="A88" s="18">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2214,10 +2216,10 @@
       <c r="D88" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E88" s="12"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="19">
+      <c r="A89" s="18">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2226,10 +2228,10 @@
       <c r="D89" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E89" s="12"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="19">
+      <c r="A90" s="18">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2238,43 +2240,43 @@
       <c r="D90" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E90" s="12"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="22">
+      <c r="A91" s="21">
         <v>10</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="23" t="s">
+      <c r="B91" s="13"/>
+      <c r="C91" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E91" s="15"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="20"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="16"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
+      <c r="A93" s="16">
         <v>11</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="18" t="s">
+      <c r="B93" s="7"/>
+      <c r="C93" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E93" s="10"/>
+      <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="19">
+      <c r="A94" s="18">
         <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -2283,10 +2285,10 @@
       <c r="D94" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E94" s="12"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="19">
+      <c r="A95" s="18">
         <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -2295,10 +2297,10 @@
       <c r="D95" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E95" s="12"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="19">
+      <c r="A96" s="18">
         <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2307,10 +2309,10 @@
       <c r="D96" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E96" s="12"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="19">
+      <c r="A97" s="18">
         <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2319,10 +2321,10 @@
       <c r="D97" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E97" s="12"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="19">
+      <c r="A98" s="18">
         <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2331,43 +2333,43 @@
       <c r="D98" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E98" s="12"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="22">
+      <c r="A99" s="21">
         <v>11</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="23" t="s">
+      <c r="B99" s="13"/>
+      <c r="C99" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D99" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E99" s="15"/>
+      <c r="E99" s="14"/>
     </row>
     <row r="100" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="20"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="16"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="15"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="17">
+      <c r="A101" s="16">
         <v>12</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="18" t="s">
+      <c r="B101" s="7"/>
+      <c r="C101" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E101" s="10"/>
+      <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="19">
+      <c r="A102" s="18">
         <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2376,156 +2378,180 @@
       <c r="D102" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E102" s="12"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="19">
+      <c r="A103" s="18">
         <v>12</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E103" s="12"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="19">
+      <c r="A104" s="18">
         <v>12</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E104" s="11"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="18">
+        <v>12</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E104" s="12"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="11">
+      <c r="E105" s="11"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
         <v>12</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E105" s="12"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="11">
+      <c r="E106" s="11"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
         <v>12</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E106" s="12"/>
-    </row>
-    <row r="107" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="13">
+      <c r="E107" s="11"/>
+    </row>
+    <row r="108" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="12">
         <v>12</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14" t="s">
+      <c r="B108" s="13"/>
+      <c r="C108" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D108" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E107" s="15"/>
-    </row>
-    <row r="108" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
+      <c r="E108" s="14"/>
+    </row>
+    <row r="109" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
         <v>13</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="9" t="s">
+      <c r="B110" s="7"/>
+      <c r="C110" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D110" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E109" s="10"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="11">
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
         <v>13</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E110" s="12"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="11">
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
         <v>13</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C112" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E112" s="11"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>13</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E111" s="12"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="11">
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
         <v>13</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E112" s="12"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="11">
+      <c r="E114" s="11"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
         <v>13</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E113" s="12"/>
-    </row>
-    <row r="114" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="13">
+      <c r="E115" s="11"/>
+    </row>
+    <row r="116" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="12">
         <v>13</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14" t="s">
+      <c r="B116" s="13"/>
+      <c r="C116" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D116" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E114" s="15"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
+      <c r="E116" s="14"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">

--- a/Grupos del proyecto integrador - Curso Node JS (23571).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23571).xlsx
@@ -633,9 +633,6 @@
     <t>Karla Cova</t>
   </si>
   <si>
-    <t>Federic Caucota</t>
-  </si>
-  <si>
     <t>caucota@gmail.com</t>
   </si>
   <si>
@@ -655,6 +652,9 @@
   </si>
   <si>
     <t>Emilce Alejandra Coronel Pereyra</t>
+  </si>
+  <si>
+    <t>Federico Caucota</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2373,10 +2373,10 @@
         <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E102" s="11"/>
     </row>
@@ -2385,10 +2385,10 @@
         <v>12</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E103" s="11"/>
     </row>
@@ -2397,10 +2397,10 @@
         <v>12</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E104" s="11"/>
     </row>
@@ -2490,10 +2490,10 @@
         <v>13</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E112" s="11"/>
     </row>
